--- a/STAAR Performance Rate_21_22 Reformatted AD.xlsx
+++ b/STAAR Performance Rate_21_22 Reformatted AD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a3d0d43911148d9/Desktop/BootcampFiles/Angela Project Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a3d0d43911148d9/Desktop/BootcampFiles/Final_Project_MASAS/Final_Project_MASAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{BBAFC964-9060-4134-A659-274483AFB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD058A52-B3D3-4935-A04C-28758C8216AC}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{BBAFC964-9060-4134-A659-274483AFB2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F555A20B-95C3-4ABD-8350-782FF9BE61F1}"/>
   <bookViews>
-    <workbookView xWindow="-28950" yWindow="-870" windowWidth="17025" windowHeight="10860" xr2:uid="{FEDB6016-0408-43D0-BD8E-DB149A059259}"/>
+    <workbookView xWindow="-38115" yWindow="-5355" windowWidth="19155" windowHeight="20685" activeTab="3" xr2:uid="{FEDB6016-0408-43D0-BD8E-DB149A059259}"/>
   </bookViews>
   <sheets>
     <sheet name="Tested Grade" sheetId="2" r:id="rId1"/>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E72DE1B-E81E-44A8-B8B8-F345A4DFB00F}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
@@ -6641,7 +6641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BC44B8-B7FF-4509-80E0-ECDF764E3EB5}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26:T31"/>
     </sheetView>
   </sheetViews>
@@ -8578,7 +8578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6168328-89C4-41E5-B13A-E6EE5959CF5A}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
